--- a/media/make_calib.xlsx
+++ b/media/make_calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA99B48-B0C3-458F-81BA-B53F9D69ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63FA38-F8D5-439D-AC09-33AC4B86B12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name for resulting files.
-Numpy files will be saved under {save_dir}/{save_name}_npy directory.
-Text file will be saved in {save_dir}/{save_name}.txt
-If it is not provided, it is set to the basename of data_dir.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Maximum size of the resulting calibration data.
 Defaults to -1, which means no limit on the number of the calibration data.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,8 +140,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Name for resulting files.
+Numpy files will be saved under {save_dir}/{save_name}_npy directory.
+Text file will be saved in {save_dir}/{save_name}.txt.
+If it is not provided, it is set to the basename of data_dir.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Path to a Yaml file or dictionary containing preprocessing configuration information.
-Refer to 6.5. for details.</t>
+Refer to 7.4. for details.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/media/make_calib.xlsx
+++ b/media/make_calib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Manual\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinman\Desktop\workspace\Manual\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63FA38-F8D5-439D-AC09-33AC4B86B12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A6C3F-15B9-40AC-90F8-72C5D4708C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
+    <workbookView xWindow="29040" yWindow="1395" windowWidth="17610" windowHeight="11295" xr2:uid="{82FA91C1-AFA3-4631-B311-4F4CA060295C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,25 @@
   <si>
     <t>Path to a Yaml file or dictionary containing preprocessing configuration information.
 Refer to 7.4. for details.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_calib_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If True, save calibration data dictionary as MSGpack file.
+Defaults to False.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path to save MSGpack file
+If not provided, it automatically generate the path with dataname and number of calibration data.
+Defaults to None.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +226,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456629B3-8544-4598-9B44-E584E1332484}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,6 +661,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
